--- a/設定ファイル.xlsx
+++ b/設定ファイル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SCC\検診結果ツール\mytool\scc_bo_bpf_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFD130D-6219-4DCB-A989-B92D749B9207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFC135A-7258-40B5-B1F2-89E48ED6763F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="300" windowWidth="23835" windowHeight="14340" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="300" windowWidth="23835" windowHeight="14340" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各種設定" sheetId="19" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15891" uniqueCount="2347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15891" uniqueCount="2348">
   <si>
     <t>各種設定</t>
     <rPh sb="0" eb="4">
@@ -7343,6 +7343,10 @@
   </si>
   <si>
     <t>更新</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>異常所見あり</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -8660,7 +8664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -8720,6 +8724,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="d06N2TBOWlulICcaJDN7Afz7/kIeDhcUZZc7PbyeRp/C+rlP831A4Jiz1gDEdXPyUdvlUGvJj2a5BSzZErc9ag==" saltValue="Tv7fwKrz+ulR2CTR3WtjNg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8731,7 +8736,7 @@
   <dimension ref="A1:K3024"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A2969" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -83534,6 +83539,7 @@
     </row>
     <row r="3024" spans="1:11" ht="19.5" thickTop="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="SUP1iFRHhAIQwlRfkOvEK2Th+KLDbipa7oPNijMN+s3Z7Ovehrad9s4YGQhOFcPIjEgPgq4pYDLP8DbdppJHjg==" saltValue="BdTovy9aSlWJHGg1AAMlQQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A4:K3023" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="G1:G4 G3024:G1048576">
@@ -83559,7 +83565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -83625,7 +83631,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>2057</v>
+        <v>2347</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="74"/>
@@ -87461,6 +87467,7 @@
       <c r="E261" s="75"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ccdba5/KZ6KNrlmEuoLTLFQatsqLhR5LnIPkSrio1swtcFMcEcpfQqfP0cWVV5RJgF1et2GziWhV0VdV3wVL4g==" saltValue="2ckYc/M/NIBihr+YkncDvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A3:E256" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -88530,6 +88537,7 @@
     </row>
     <row r="56" spans="1:6" ht="19.5" thickTop="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="0eA/4q05R8MaW7aXWgOypSgN7uyesZ54e63UjXDxKbBE00yWnxh1VsrU50JXTtqlBJQm0tVR3FFS62pbAsQbyQ==" saltValue="mH+hxD9Bh+6uhYzH5u9uQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A3:F55" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設定ファイル.xlsx
+++ b/設定ファイル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma2nao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SCC\検診結果ツール\mytool\scc_bo_bpf_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66E71B7-E957-4449-9B0A-AC49B26B9974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF7426-95F1-4575-B563-1CC1102AC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="255" windowWidth="23835" windowHeight="14340" tabRatio="688" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="525" windowWidth="23835" windowHeight="14340" tabRatio="688" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各種設定" sheetId="19" r:id="rId1"/>
@@ -88669,6 +88669,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100164772085A5F744B86507480E59BA084" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2dbc4b38c0f714b183aac248d6723df4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a9f91e4-8d41-4a13-a3e3-88af0102a526" xmlns:ns3="29342d75-fe5d-447e-b014-f2d7be65b195" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e3981bf222cf7d618678acd3f8d14ed3" ns2:_="" ns3:_="">
     <xsd:import namespace="7a9f91e4-8d41-4a13-a3e3-88af0102a526"/>
@@ -88899,15 +88908,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -88920,6 +88920,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9CA0CB-B0C0-44AB-AEA4-7272FF8B0615}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC18CC7-3290-4CD8-AFAB-3A8DD27BC2FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -88938,14 +88946,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D9CA0CB-B0C0-44AB-AEA4-7272FF8B0615}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{898AF781-40E4-400C-9FB3-84D63E95EEC9}">
   <ds:schemaRefs>
